--- a/3.0/src/test/java/data/DataSheet.xlsx
+++ b/3.0/src/test/java/data/DataSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" state="visible" r:id="rId3"/>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">2ss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7ss</t>
+    <t xml:space="preserve">2SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7SS</t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -342,7 +342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -365,8 +365,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/3.0/src/test/java/data/DataSheet.xlsx
+++ b/3.0/src/test/java/data/DataSheet.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="SKU_Data" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="SellerRetailer_Data" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -47,18 +48,31 @@
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">2SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7SS</t>
+    <t xml:space="preserve">0120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">014214_7777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPERMERCADO MERCA Z CHIPICHAPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -145,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,6 +178,26 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -363,40 +397,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="12.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="8.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="8.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="6" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="8" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>1313</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -408,4 +451,47 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.36"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>